--- a/biology/Zoologie/Grigori_Beï-Bienko/Grigori_Beï-Bienko.xlsx
+++ b/biology/Zoologie/Grigori_Beï-Bienko/Grigori_Beï-Bienko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grigori_Be%C3%AF-Bienko</t>
+          <t>Grigori_Beï-Bienko</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grigori Iakovlevitch Beï-Bienko (en russe : Григорий Яковлевич Бей-Биенко ; en anglais : Grigory Bey-Bienko) né le 7 février 1903 à Belopolie (gouvernement de Kharkov) et mort le 3 novembre 1971 à Moscou (URSS), est un entomologiste soviétique qui fut membre-correspondant de l'Académie des sciences d'URSS et président de la Société entomologique d'URSS.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grigori_Be%C3%AF-Bienko</t>
+          <t>Grigori_Beï-Bienko</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît en 1903 dans la famille d'un artisan qui s'établit en 1907 à Omsk, où il poursuit ses études à l'Institut d'agriculture, aujourd'hui université agricole nationale d'Omsk. Il est admis en 1929 à l'Institut panrusse de protection des plantes (ru), récemment fondé, d'abord en qualité de collaborateur scientifique, puis en qualité de spécialiste scientifique pour diriger le laboratoire d'études des acridoïdés. Il est nommé en février 1938 directeur de la chaire d'entomologie de l'Institut d'agronomie de Léningrad.
 Il est engagé pendant la Grande Guerre patriotique comme volontaire de la milice populaire (Narodnoïe opoltchenie). Il est évacué de Léningrad avec l'Institut en mars 1942 en direction de Perm. Il est en piteux état et y demeure jusqu'en octobre 1944.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grigori_Be%C3%AF-Bienko</t>
+          <t>Grigori_Beï-Bienko</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ordre du Drapeau rouge du Travail
 Ordre de l'Insigne d'honneur
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grigori_Be%C3%AF-Bienko</t>
+          <t>Grigori_Beï-Bienko</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux genres d'insectes ont été nommés en son honneur en 1991: Beybienka (Pamphagidae) et Beybienkoa Roth (Blattellidae), originaire d'Australie et de Nouvelle-Guinée[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux genres d'insectes ont été nommés en son honneur en 1991: Beybienka (Pamphagidae) et Beybienkoa Roth (Blattellidae), originaire d'Australie et de Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grigori_Be%C3%AF-Bienko</t>
+          <t>Grigori_Beï-Bienko</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,20 +628,90 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>«Насекомые, вредящие полевым культурам» [Les insectes ravageurs des cultures] (en collaboration avec V. N. Chtchiogolev et A. V. Znamenski), 1934; 2e éd.
 «Кожистокрылые» [Les dermaptères] (collection «La Faune d'URSS»), 1936.
 «Саранчовые фауны СССР и сопредельных стран» [Les acridoïdés d'URSS et des pays adjacents] (en collaboration avec L. L. Michtchenko), 1951.
 «Таракановые» [Les blattoptères] (collection «La Faune d'URSS»), 1950.
-«Листовые кузнечики» [Les tettigoniidés] (collection «La Faune d'URSS»), 1954.
-Manuels
-«Сельскохозяйственная энтомология» [L'Entomologie appliquée à l'agriculture] (en collaboration avec N. N. Bogdanov-Katkov, V. N. Chtchiogolev et allii), trois éditions 1941, 1949, 1955.
+«Листовые кузнечики» [Les tettigoniidés] (collection «La Faune d'URSS»), 1954.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grigori_Beï-Bienko</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grigori_Be%C3%AF-Bienko</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Manuels</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>«Сельскохозяйственная энтомология» [L'Entomologie appliquée à l'agriculture] (en collaboration avec N. N. Bogdanov-Katkov, V. N. Chtchiogolev et allii), trois éditions 1941, 1949, 1955.
 «Лабораторные занятия по энтомологии» [Exercices de laboratoire en entomologie] (en collaboration avec O. A. Skorikova), 1958; 2e éd., 1966.
 «Практикум по сельскохозяйственной энтомологии» [Travaux pratiques d'entomologie appliquée à l'agriculture].
-«Общая энтомология» [Entomologie fondamentale] (manuel), deux éd. 1966 et 1971.
-Articles
-(ru) Принцип смены стаций и проблема начальной дивергенции видов [Principe du changement de statut et problème de la divergence initiale des genres]. // Журнал общей биологии [Journal de biologie fondamentale], 1959, t. 20, N°5, pp. 351–358.
+«Общая энтомология» [Entomologie fondamentale] (manuel), deux éd. 1966 et 1971.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grigori_Beï-Bienko</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grigori_Be%C3%AF-Bienko</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(ru) Принцип смены стаций и проблема начальной дивергенции видов [Principe du changement de statut et problème de la divergence initiale des genres]. // Журнал общей биологии [Journal de biologie fondamentale], 1959, t. 20, N°5, pp. 351–358.
 (ru) Об общей классификации насекомых [Sur la classification générale des Insectes]. // Энтомологическое обозрение [Revue d’Entomologie], 1962, t. 49, N°1, pp. 6–21.
 (ru) Смена местообитаний наземными организмами как биологический принцип [Changement de biotope des organismes terrestres comme principe biologique]. // Журнал общей биологии [Journal de biologie fondamentale], 1966, t. 27, N°1 I, pp. 5–21.</t>
         </is>
